--- a/resources/post_test.xlsx
+++ b/resources/post_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucija\Desktop\two_step_online\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D47C9-DA94-4FD6-86C3-440F3EF5776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A657D-F79C-4FAC-82E2-E16BF779B688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{685051CD-7CD6-4133-88B7-C3B6028625E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
   <si>
     <t>If you picked this spaceship,</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Which spaceship were you most likely to have picked? Select by pressing X for left and M for right spaceship.</t>
+  </si>
+  <si>
+    <t>allowed_keys</t>
+  </si>
+  <si>
+    <t>('x', 'm')</t>
+  </si>
+  <si>
+    <t>('1', '2','3', '4')</t>
+  </si>
+  <si>
+    <t>('space')</t>
+  </si>
+  <si>
+    <t>size_left_up_img</t>
+  </si>
+  <si>
+    <t>size_right_img_up</t>
+  </si>
+  <si>
+    <t>[0.35,0.25]</t>
   </si>
 </sst>
 </file>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744D3DAF-E788-400F-B0CE-B3EA0CA1FC6C}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +545,7 @@
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -559,10 +580,19 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -593,14 +623,23 @@
       <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="K2">
-        <v>0.3</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -631,14 +670,23 @@
       <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="K3">
-        <v>0.3</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
       </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -673,10 +721,19 @@
         <v>0.3</v>
       </c>
       <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -711,10 +768,19 @@
         <v>0.3</v>
       </c>
       <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5" t="s">
         <v>30</v>
       </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -748,11 +814,20 @@
       <c r="K6">
         <v>0.2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>0.2</v>
+      </c>
+      <c r="N6" t="s">
         <v>30</v>
       </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -787,10 +862,19 @@
         <v>0.3</v>
       </c>
       <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -825,10 +909,19 @@
         <v>0.3</v>
       </c>
       <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -863,10 +956,19 @@
         <v>0.3</v>
       </c>
       <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -901,7 +1003,16 @@
         <v>0.3</v>
       </c>
       <c r="L10">
+        <v>0.3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
         <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
